--- a/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250115.xlsx
+++ b/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250115.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -1679,6 +1679,54 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1715,52 +1763,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1770,15 +1779,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2837,7 +2837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AD35" sqref="AD35"/>
     </sheetView>
   </sheetViews>
@@ -2860,12 +2860,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -2892,60 +2892,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="70">
         <v>45670</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="70"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="60"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="76"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -3020,14 +3020,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="71"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="61"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -3113,7 +3113,7 @@
       <c r="F7" s="11">
         <v>45695</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="69" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="22">
@@ -3158,7 +3158,7 @@
       <c r="F8" s="11">
         <v>45695</v>
       </c>
-      <c r="G8" s="51"/>
+      <c r="G8" s="67"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H12" si="3">IF(F8="","",F8+1-E8)</f>
         <v>26</v>
@@ -3199,7 +3199,7 @@
       <c r="F9" s="11">
         <v>45695</v>
       </c>
-      <c r="G9" s="51"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3240,7 +3240,7 @@
       <c r="F10" s="11">
         <v>45695</v>
       </c>
-      <c r="G10" s="51"/>
+      <c r="G10" s="67"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3281,7 +3281,7 @@
       <c r="F11" s="11">
         <v>45695</v>
       </c>
-      <c r="G11" s="51"/>
+      <c r="G11" s="67"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3322,7 +3322,7 @@
       <c r="F12" s="11">
         <v>45695</v>
       </c>
-      <c r="G12" s="51"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3363,7 +3363,7 @@
       <c r="F13" s="11">
         <v>45695</v>
       </c>
-      <c r="G13" s="51"/>
+      <c r="G13" s="67"/>
       <c r="H13" s="22">
         <f t="shared" ref="H13:H38" si="4">IF(F13="","",F13+1-E13)</f>
         <v>26</v>
@@ -3404,7 +3404,7 @@
       <c r="F14" s="11">
         <v>45695</v>
       </c>
-      <c r="G14" s="51"/>
+      <c r="G14" s="67"/>
       <c r="H14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3443,7 +3443,7 @@
       <c r="F15" s="11">
         <v>45695</v>
       </c>
-      <c r="G15" s="51"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3482,7 +3482,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="66" t="s">
         <v>77</v>
       </c>
       <c r="H16" s="22">
@@ -3525,7 +3525,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="51"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3566,7 +3566,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="51"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="22">
         <f t="shared" ref="H18:H28" si="5">IF(F18="","",F18+1-E18)</f>
         <v>5</v>
@@ -3605,7 +3605,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="51"/>
+      <c r="G19" s="67"/>
       <c r="H19" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3644,7 +3644,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="51"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3683,7 +3683,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="51"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3722,7 +3722,7 @@
       <c r="F22" s="11">
         <v>45674</v>
       </c>
-      <c r="G22" s="51"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3761,7 +3761,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="51"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3802,7 +3802,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="51"/>
+      <c r="G24" s="67"/>
       <c r="H24" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3843,7 +3843,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="51"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="22">
         <f t="shared" ref="H25" si="6">IF(F25="","",F25+1-E25)</f>
         <v>5</v>
@@ -3884,7 +3884,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="51"/>
+      <c r="G26" s="67"/>
       <c r="H26" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3925,7 +3925,7 @@
       <c r="F27" s="11">
         <v>45674</v>
       </c>
-      <c r="G27" s="51"/>
+      <c r="G27" s="67"/>
       <c r="H27" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3966,7 +3966,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="51"/>
+      <c r="G28" s="67"/>
       <c r="H28" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -4005,7 +4005,7 @@
       <c r="F29" s="11">
         <v>45678</v>
       </c>
-      <c r="G29" s="51"/>
+      <c r="G29" s="67"/>
       <c r="H29" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4046,7 +4046,7 @@
       <c r="F30" s="11">
         <v>45678</v>
       </c>
-      <c r="G30" s="51"/>
+      <c r="G30" s="67"/>
       <c r="H30" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4087,7 +4087,7 @@
       <c r="F31" s="11">
         <v>45680</v>
       </c>
-      <c r="G31" s="51"/>
+      <c r="G31" s="67"/>
       <c r="H31" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4128,7 +4128,7 @@
       <c r="F32" s="11">
         <v>45680</v>
       </c>
-      <c r="G32" s="51"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4169,7 +4169,7 @@
       <c r="F33" s="11">
         <v>45684</v>
       </c>
-      <c r="G33" s="51"/>
+      <c r="G33" s="67"/>
       <c r="H33" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4210,7 +4210,7 @@
       <c r="F34" s="11">
         <v>45684</v>
       </c>
-      <c r="G34" s="52"/>
+      <c r="G34" s="68"/>
       <c r="H34" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4397,18 +4397,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G16:G34"/>
+    <mergeCell ref="G7:G15"/>
+    <mergeCell ref="J4:AA4"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="G16:G34"/>
-    <mergeCell ref="G7:G15"/>
-    <mergeCell ref="J4:AA4"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA38">
@@ -4770,8 +4770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4790,16 +4790,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4822,126 +4822,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="81"/>
-      <c r="C4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="78" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="82"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="82"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="83"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5107,123 +5107,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="81"/>
-      <c r="C12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="78" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="82"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="83"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="83"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5331,123 +5331,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="81"/>
-      <c r="C18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="78" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="79"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="82"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="83"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="83"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5590,123 +5590,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="81"/>
-      <c r="C25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="78" t="s">
+      <c r="B25" s="78"/>
+      <c r="C25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="82"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="79"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="82"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="83"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="83"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -5817,6 +5817,83 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5833,83 +5910,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250115.xlsx
+++ b/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250115.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="115">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -877,19 +877,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. sass 중복되는 부분 합쳐야함.(mixin || extend 사용하기)
+    <t>Structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커서 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1. sass 중복되는 부분 합쳐야함.(mixin || extend 사용하기)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
 2.(이월) 글자 및 행성관련 이징 , 애니메이션 충분히 테스트해보고 적용하기
 3. (이월)부드러운 스크롤 적용
 4. 갤러리 JS 구현하기.
 5. 갤러리 JS 까지 구현되면 미디어쿼리 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Structure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커서 효과</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">질문
+1. 이미지 데이터를 읽어와서 html 태그로 찍는 방법
+2. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1679,6 +1707,51 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1709,15 +1782,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1727,40 +1791,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1770,15 +1807,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2860,12 +2888,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -2881,7 +2909,7 @@
       </c>
       <c r="F3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="21" t="s">
@@ -2892,60 +2920,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="70">
+      <c r="J4" s="54">
         <v>45670</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="55"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="76"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -3020,14 +3048,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="56"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="77"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -3113,7 +3141,7 @@
       <c r="F7" s="11">
         <v>45695</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="53" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="22">
@@ -3158,7 +3186,7 @@
       <c r="F8" s="11">
         <v>45695</v>
       </c>
-      <c r="G8" s="67"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H12" si="3">IF(F8="","",F8+1-E8)</f>
         <v>26</v>
@@ -3199,7 +3227,7 @@
       <c r="F9" s="11">
         <v>45695</v>
       </c>
-      <c r="G9" s="67"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3240,7 +3268,7 @@
       <c r="F10" s="11">
         <v>45695</v>
       </c>
-      <c r="G10" s="67"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3281,7 +3309,7 @@
       <c r="F11" s="11">
         <v>45695</v>
       </c>
-      <c r="G11" s="67"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3322,7 +3350,7 @@
       <c r="F12" s="11">
         <v>45695</v>
       </c>
-      <c r="G12" s="67"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3363,7 +3391,7 @@
       <c r="F13" s="11">
         <v>45695</v>
       </c>
-      <c r="G13" s="67"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="22">
         <f t="shared" ref="H13:H38" si="4">IF(F13="","",F13+1-E13)</f>
         <v>26</v>
@@ -3404,7 +3432,7 @@
       <c r="F14" s="11">
         <v>45695</v>
       </c>
-      <c r="G14" s="67"/>
+      <c r="G14" s="51"/>
       <c r="H14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3443,7 +3471,7 @@
       <c r="F15" s="11">
         <v>45695</v>
       </c>
-      <c r="G15" s="67"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3482,7 +3510,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="50" t="s">
         <v>77</v>
       </c>
       <c r="H16" s="22">
@@ -3525,7 +3553,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="67"/>
+      <c r="G17" s="51"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3566,7 +3594,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="67"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="22">
         <f t="shared" ref="H18:H28" si="5">IF(F18="","",F18+1-E18)</f>
         <v>5</v>
@@ -3605,7 +3633,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="67"/>
+      <c r="G19" s="51"/>
       <c r="H19" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3644,7 +3672,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="67"/>
+      <c r="G20" s="51"/>
       <c r="H20" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3683,7 +3711,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="67"/>
+      <c r="G21" s="51"/>
       <c r="H21" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3722,7 +3750,7 @@
       <c r="F22" s="11">
         <v>45674</v>
       </c>
-      <c r="G22" s="67"/>
+      <c r="G22" s="51"/>
       <c r="H22" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3751,7 +3779,7 @@
     </row>
     <row r="23" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="18"/>
@@ -3761,7 +3789,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="67"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3802,7 +3830,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="67"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3843,7 +3871,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="67"/>
+      <c r="G25" s="51"/>
       <c r="H25" s="22">
         <f t="shared" ref="H25" si="6">IF(F25="","",F25+1-E25)</f>
         <v>5</v>
@@ -3884,7 +3912,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="67"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3913,7 +3941,7 @@
     </row>
     <row r="27" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>64</v>
@@ -3925,7 +3953,7 @@
       <c r="F27" s="11">
         <v>45674</v>
       </c>
-      <c r="G27" s="67"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3966,7 +3994,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="67"/>
+      <c r="G28" s="51"/>
       <c r="H28" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -4005,7 +4033,7 @@
       <c r="F29" s="11">
         <v>45678</v>
       </c>
-      <c r="G29" s="67"/>
+      <c r="G29" s="51"/>
       <c r="H29" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4046,7 +4074,7 @@
       <c r="F30" s="11">
         <v>45678</v>
       </c>
-      <c r="G30" s="67"/>
+      <c r="G30" s="51"/>
       <c r="H30" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4087,7 +4115,7 @@
       <c r="F31" s="11">
         <v>45680</v>
       </c>
-      <c r="G31" s="67"/>
+      <c r="G31" s="51"/>
       <c r="H31" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4128,7 +4156,7 @@
       <c r="F32" s="11">
         <v>45680</v>
       </c>
-      <c r="G32" s="67"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4169,7 +4197,7 @@
       <c r="F33" s="11">
         <v>45684</v>
       </c>
-      <c r="G33" s="67"/>
+      <c r="G33" s="51"/>
       <c r="H33" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4210,7 +4238,7 @@
       <c r="F34" s="11">
         <v>45684</v>
       </c>
-      <c r="G34" s="68"/>
+      <c r="G34" s="52"/>
       <c r="H34" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4397,18 +4425,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="G16:G34"/>
     <mergeCell ref="G7:G15"/>
     <mergeCell ref="J4:AA4"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA38">
@@ -4770,8 +4798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4790,16 +4818,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4809,7 +4837,7 @@
       </c>
       <c r="G3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>3</v>
@@ -4822,126 +4850,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="78"/>
-      <c r="C4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="81" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="79"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="79"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="80"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5107,123 +5135,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="78"/>
-      <c r="C12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="81" t="s">
+      <c r="B12" s="81"/>
+      <c r="C12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="79"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="82"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="79"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="80"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="80"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5310,7 +5338,9 @@
       <c r="H16" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="24"/>
+      <c r="I16" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
@@ -5331,123 +5361,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="78"/>
-      <c r="C18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="81" t="s">
+      <c r="B18" s="81"/>
+      <c r="C18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="79"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="82"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="79"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="80"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="83"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="80"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5538,7 +5568,7 @@
         <v>109</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -5590,123 +5620,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="78"/>
-      <c r="C25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="81" t="s">
+      <c r="B25" s="81"/>
+      <c r="C25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="79"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="76"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="82"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="79"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="80"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="83"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="80"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -5817,83 +5847,6 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5910,6 +5863,83 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250115.xlsx
+++ b/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250115.xlsx
@@ -885,6 +885,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>질문
+1. 이미지 데이터를 읽어와서 html 태그로 찍는 방법
+2. 미디어 쿼리 질문
+- 글자 덮어쓰기가 안됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <strike/>
@@ -909,15 +916,55 @@
       <t xml:space="preserve">
 2.(이월) 글자 및 행성관련 이징 , 애니메이션 충분히 테스트해보고 적용하기
 3. (이월)부드러운 스크롤 적용
-4. 갤러리 JS 구현하기.
-5. 갤러리 JS 까지 구현되면 미디어쿼리 진행</t>
+</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">질문
-1. 이미지 데이터를 읽어와서 html 태그로 찍는 방법
-2. </t>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>4. 갤러리 JS 구현하기.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> (진행중-질문필요)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>5. 미디어쿼리 진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> (진행중)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1707,6 +1754,54 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1743,52 +1838,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1798,15 +1854,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2888,12 +2935,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -2920,60 +2967,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="70">
         <v>45670</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="70"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="60"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="76"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -3048,14 +3095,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="71"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="61"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -3141,7 +3188,7 @@
       <c r="F7" s="11">
         <v>45695</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="69" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="22">
@@ -3186,7 +3233,7 @@
       <c r="F8" s="11">
         <v>45695</v>
       </c>
-      <c r="G8" s="51"/>
+      <c r="G8" s="67"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H12" si="3">IF(F8="","",F8+1-E8)</f>
         <v>26</v>
@@ -3227,7 +3274,7 @@
       <c r="F9" s="11">
         <v>45695</v>
       </c>
-      <c r="G9" s="51"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3268,7 +3315,7 @@
       <c r="F10" s="11">
         <v>45695</v>
       </c>
-      <c r="G10" s="51"/>
+      <c r="G10" s="67"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3309,7 +3356,7 @@
       <c r="F11" s="11">
         <v>45695</v>
       </c>
-      <c r="G11" s="51"/>
+      <c r="G11" s="67"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3350,7 +3397,7 @@
       <c r="F12" s="11">
         <v>45695</v>
       </c>
-      <c r="G12" s="51"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3391,7 +3438,7 @@
       <c r="F13" s="11">
         <v>45695</v>
       </c>
-      <c r="G13" s="51"/>
+      <c r="G13" s="67"/>
       <c r="H13" s="22">
         <f t="shared" ref="H13:H38" si="4">IF(F13="","",F13+1-E13)</f>
         <v>26</v>
@@ -3432,7 +3479,7 @@
       <c r="F14" s="11">
         <v>45695</v>
       </c>
-      <c r="G14" s="51"/>
+      <c r="G14" s="67"/>
       <c r="H14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3471,7 +3518,7 @@
       <c r="F15" s="11">
         <v>45695</v>
       </c>
-      <c r="G15" s="51"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3510,7 +3557,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="66" t="s">
         <v>77</v>
       </c>
       <c r="H16" s="22">
@@ -3553,7 +3600,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="51"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3594,7 +3641,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="51"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="22">
         <f t="shared" ref="H18:H28" si="5">IF(F18="","",F18+1-E18)</f>
         <v>5</v>
@@ -3633,7 +3680,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="51"/>
+      <c r="G19" s="67"/>
       <c r="H19" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3672,7 +3719,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="51"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3711,7 +3758,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="51"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3750,7 +3797,7 @@
       <c r="F22" s="11">
         <v>45674</v>
       </c>
-      <c r="G22" s="51"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3789,7 +3836,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="51"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3830,7 +3877,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="51"/>
+      <c r="G24" s="67"/>
       <c r="H24" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3871,7 +3918,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="51"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="22">
         <f t="shared" ref="H25" si="6">IF(F25="","",F25+1-E25)</f>
         <v>5</v>
@@ -3912,7 +3959,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="51"/>
+      <c r="G26" s="67"/>
       <c r="H26" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3953,7 +4000,7 @@
       <c r="F27" s="11">
         <v>45674</v>
       </c>
-      <c r="G27" s="51"/>
+      <c r="G27" s="67"/>
       <c r="H27" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3994,7 +4041,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="51"/>
+      <c r="G28" s="67"/>
       <c r="H28" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -4033,7 +4080,7 @@
       <c r="F29" s="11">
         <v>45678</v>
       </c>
-      <c r="G29" s="51"/>
+      <c r="G29" s="67"/>
       <c r="H29" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4074,7 +4121,7 @@
       <c r="F30" s="11">
         <v>45678</v>
       </c>
-      <c r="G30" s="51"/>
+      <c r="G30" s="67"/>
       <c r="H30" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4115,7 +4162,7 @@
       <c r="F31" s="11">
         <v>45680</v>
       </c>
-      <c r="G31" s="51"/>
+      <c r="G31" s="67"/>
       <c r="H31" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4156,7 +4203,7 @@
       <c r="F32" s="11">
         <v>45680</v>
       </c>
-      <c r="G32" s="51"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4197,7 +4244,7 @@
       <c r="F33" s="11">
         <v>45684</v>
       </c>
-      <c r="G33" s="51"/>
+      <c r="G33" s="67"/>
       <c r="H33" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4238,7 +4285,7 @@
       <c r="F34" s="11">
         <v>45684</v>
       </c>
-      <c r="G34" s="52"/>
+      <c r="G34" s="68"/>
       <c r="H34" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4425,18 +4472,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G16:G34"/>
+    <mergeCell ref="G7:G15"/>
+    <mergeCell ref="J4:AA4"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="G16:G34"/>
-    <mergeCell ref="G7:G15"/>
-    <mergeCell ref="J4:AA4"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA38">
@@ -4798,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4818,16 +4865,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4850,126 +4897,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="81"/>
-      <c r="C4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="78" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="82"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="82"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="83"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5135,123 +5182,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="81"/>
-      <c r="C12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="78" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="82"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="83"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="83"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5339,7 +5386,7 @@
         <v>108</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
@@ -5361,123 +5408,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="81"/>
-      <c r="C18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="78" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="79"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="82"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="83"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="83"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5568,7 +5615,7 @@
         <v>109</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -5620,123 +5667,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="81"/>
-      <c r="C25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="78" t="s">
+      <c r="B25" s="78"/>
+      <c r="C25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="82"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="79"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="82"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="83"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="83"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -5847,6 +5894,83 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5863,83 +5987,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250115.xlsx
+++ b/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250115.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="117">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -885,13 +885,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>질문
-1. 이미지 데이터를 읽어와서 html 태그로 찍는 방법
-2. 미디어 쿼리 질문
-- 글자 덮어쓰기가 안됨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <strike/>
@@ -914,8 +907,6 @@
         <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">
-2.(이월) 글자 및 행성관련 이징 , 애니메이션 충분히 테스트해보고 적용하기
-3. (이월)부드러운 스크롤 적용
 </t>
     </r>
     <r>
@@ -928,7 +919,7 @@
         <charset val="129"/>
         <scheme val="major"/>
       </rPr>
-      <t>4. 갤러리 JS 구현하기.</t>
+      <t>2.(이월) 글자 및 행성관련 이징 , 애니메이션 충분히 테스트해보고 적용하기</t>
     </r>
     <r>
       <rPr>
@@ -939,7 +930,56 @@
         <charset val="129"/>
         <scheme val="major"/>
       </rPr>
-      <t xml:space="preserve"> (진행중-질문필요)
+      <t xml:space="preserve">(갤러리 서브메뉴 먼저 해결 하고)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+3. (이월)부드러운 스크롤 적용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">(구현 마지막즈음 해도 될 듯.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>4. 갤러리 JS 구현하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">(질문 해결되면 추가 진행)
 </t>
     </r>
     <r>
@@ -963,7 +1003,45 @@
         <charset val="129"/>
         <scheme val="major"/>
       </rPr>
-      <t xml:space="preserve"> (진행중)</t>
+      <t>(갤러리 완료 후 추가 진행)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 미디어 쿼리 
+- sass 공통속성 병합
+- width 1000px 에서 레이아웃 , 글씨 크기와 정렬 변경될 수 있도록 코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 갤러리 서브메뉴 마무리
+-&gt; 데이터 읽어오는 것까지는 완료. 서브메뉴 CSS 만들고 데이터 적용시켜보기.
+2. 타이핑 애니메이션 플러그인 진행
+3. 타이핑 애니메이션 외에 추가 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">질문
+1. 이미지 데이터를 읽어와서 html 태그로 찍는 방법
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>답변
+1. 이벤트 대상 설정 ,
+클릭된 박스의 이미지 읽어오기$(this).attr("src");
+2. 읽어온 내용을 서브 컨텐츠에 뿌리면 가능!
+서브페이지 피드백
+1. 첫 서브 페이지 만든 다음에 다른 페이지를 따로 만들지 말고 , JS로 뿌리는 것이 좋을 듯. 뿌리는 데이터를 JSON으로 만들고, 키 값은 각 행성으로 해보면 좋을 듯 함.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1190,7 +1268,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1751,8 +1829,50 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1784,15 +1904,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1802,40 +1913,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1847,14 +1931,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2912,8 +2990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AD35" sqref="AD35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2935,12 +3013,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -2967,60 +3045,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="70">
+      <c r="J4" s="53">
         <v>45670</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="55"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="76"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -3095,14 +3173,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="56"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="77"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -3188,7 +3266,7 @@
       <c r="F7" s="11">
         <v>45695</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="52" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="22">
@@ -3233,7 +3311,7 @@
       <c r="F8" s="11">
         <v>45695</v>
       </c>
-      <c r="G8" s="67"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H12" si="3">IF(F8="","",F8+1-E8)</f>
         <v>26</v>
@@ -3274,7 +3352,7 @@
       <c r="F9" s="11">
         <v>45695</v>
       </c>
-      <c r="G9" s="67"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3315,7 +3393,7 @@
       <c r="F10" s="11">
         <v>45695</v>
       </c>
-      <c r="G10" s="67"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3356,7 +3434,7 @@
       <c r="F11" s="11">
         <v>45695</v>
       </c>
-      <c r="G11" s="67"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3397,7 +3475,7 @@
       <c r="F12" s="11">
         <v>45695</v>
       </c>
-      <c r="G12" s="67"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3438,7 +3516,7 @@
       <c r="F13" s="11">
         <v>45695</v>
       </c>
-      <c r="G13" s="67"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="22">
         <f t="shared" ref="H13:H38" si="4">IF(F13="","",F13+1-E13)</f>
         <v>26</v>
@@ -3479,7 +3557,7 @@
       <c r="F14" s="11">
         <v>45695</v>
       </c>
-      <c r="G14" s="67"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3518,7 +3596,7 @@
       <c r="F15" s="11">
         <v>45695</v>
       </c>
-      <c r="G15" s="67"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3557,7 +3635,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="49" t="s">
         <v>77</v>
       </c>
       <c r="H16" s="22">
@@ -3600,7 +3678,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="67"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3641,13 +3719,13 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="67"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="22">
         <f t="shared" ref="H18:H28" si="5">IF(F18="","",F18+1-E18)</f>
         <v>5</v>
       </c>
       <c r="I18" s="18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -3680,7 +3758,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="67"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3719,7 +3797,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="67"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3758,7 +3836,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="67"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3797,7 +3875,7 @@
       <c r="F22" s="11">
         <v>45674</v>
       </c>
-      <c r="G22" s="67"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3836,7 +3914,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="67"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3877,7 +3955,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="67"/>
+      <c r="G24" s="50"/>
       <c r="H24" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3918,7 +3996,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="67"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="22">
         <f t="shared" ref="H25" si="6">IF(F25="","",F25+1-E25)</f>
         <v>5</v>
@@ -3959,7 +4037,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="67"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4000,7 +4078,7 @@
       <c r="F27" s="11">
         <v>45674</v>
       </c>
-      <c r="G27" s="67"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4041,7 +4119,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="67"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -4080,7 +4158,7 @@
       <c r="F29" s="11">
         <v>45678</v>
       </c>
-      <c r="G29" s="67"/>
+      <c r="G29" s="50"/>
       <c r="H29" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4121,7 +4199,7 @@
       <c r="F30" s="11">
         <v>45678</v>
       </c>
-      <c r="G30" s="67"/>
+      <c r="G30" s="50"/>
       <c r="H30" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4162,7 +4240,7 @@
       <c r="F31" s="11">
         <v>45680</v>
       </c>
-      <c r="G31" s="67"/>
+      <c r="G31" s="50"/>
       <c r="H31" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4203,7 +4281,7 @@
       <c r="F32" s="11">
         <v>45680</v>
       </c>
-      <c r="G32" s="67"/>
+      <c r="G32" s="50"/>
       <c r="H32" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4244,7 +4322,7 @@
       <c r="F33" s="11">
         <v>45684</v>
       </c>
-      <c r="G33" s="67"/>
+      <c r="G33" s="50"/>
       <c r="H33" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4285,7 +4363,7 @@
       <c r="F34" s="11">
         <v>45684</v>
       </c>
-      <c r="G34" s="68"/>
+      <c r="G34" s="51"/>
       <c r="H34" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4472,18 +4550,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="G16:G34"/>
     <mergeCell ref="G7:G15"/>
     <mergeCell ref="J4:AA4"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA38">
@@ -4845,8 +4923,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4858,23 +4937,23 @@
     <col min="6" max="6" width="63.875" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56.125" style="12" customWidth="1"/>
     <col min="8" max="8" width="53.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44" customWidth="1"/>
     <col min="10" max="23" width="27.125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.125" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4897,126 +4976,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="78"/>
-      <c r="C4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="81" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="77" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="79"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="82"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="78"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="83"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="79"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5111,7 +5190,9 @@
       <c r="H8" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -5182,123 +5263,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="78"/>
-      <c r="C12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="81" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="77" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="79"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="82"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="78"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="80"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="83"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="79"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5382,11 +5463,11 @@
       <c r="G16" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="83" t="s">
         <v>108</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
@@ -5408,123 +5489,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="78"/>
-      <c r="C18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="81" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="77" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="79"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="82"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="78"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="80"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="83"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="79"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5597,7 +5678,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:24" s="12" customFormat="1" ht="341.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:24" s="12" customFormat="1" ht="393.75" x14ac:dyDescent="0.3">
       <c r="B22" s="23" t="s">
         <v>48</v>
       </c>
@@ -5615,9 +5696,11 @@
         <v>109</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="I22" s="44"/>
+        <v>113</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>115</v>
+      </c>
       <c r="J22" s="44"/>
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
@@ -5667,123 +5750,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="78"/>
-      <c r="C25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="81" t="s">
+      <c r="B25" s="80"/>
+      <c r="C25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="77" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="79"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="76"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="82"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="78"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="80"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="83"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="79"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -5894,83 +5977,6 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5987,6 +5993,83 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
